--- a/auto/result.xlsx
+++ b/auto/result.xlsx
@@ -450,7 +450,7 @@
         <v>1118</v>
       </c>
       <c r="F2" t="n">
-        <v>4152.19897218522</v>
+        <v>35.84597133604797</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -470,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>14.95327102803738</v>
+        <v>6.230529595015576</v>
       </c>
     </row>
   </sheetData>
